--- a/Формат данных.xlsx
+++ b/Формат данных.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Байт</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Прочитать процент яркости</t>
+  </si>
+  <si>
+    <t>Формат пакеда данных</t>
+  </si>
+  <si>
+    <t>Описание параметров</t>
+  </si>
+  <si>
+    <t>Описание комманд</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,90 +536,86 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -609,13 +623,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -623,139 +637,158 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
         <v>83</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
